--- a/Result/Benchmark.xlsx
+++ b/Result/Benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emnormandie1-my.sharepoint.com/personal/jtang_em-normandie_fr/Documents/2EVRPMM/Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{BCA062F6-474C-7746-BDF9-09AF316CFC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6B94B81-DC92-1A42-88E9-11AAAB9E4167}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{BCA062F6-474C-7746-BDF9-09AF316CFC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46ADF1DF-F7E4-0849-BE99-A89AA7986297}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8220" yWindow="1720" windowWidth="28040" windowHeight="17440" xr2:uid="{1C0CB0A3-9B2E-1349-8EE0-79BEAD6D3ED0}"/>
+    <workbookView xWindow="8380" yWindow="1720" windowWidth="27880" windowHeight="17440" xr2:uid="{1C0CB0A3-9B2E-1349-8EE0-79BEAD6D3ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>E-n51-k5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+  <si>
+    <t>E-n33-k4</t>
+  </si>
+  <si>
+    <t>n_mm</t>
+  </si>
+  <si>
+    <t>n_p</t>
+  </si>
+  <si>
+    <t>n_c</t>
+  </si>
+  <si>
+    <t>n_2ev</t>
+  </si>
+  <si>
+    <t>execution time</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>2,10</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>3,14</t>
+  </si>
+  <si>
+    <t>4,18</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>8,26</t>
+  </si>
+  <si>
+    <t>15,23</t>
+  </si>
+  <si>
+    <t>movement_mm</t>
   </si>
 </sst>
 </file>
@@ -62,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -70,12 +121,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,17 +501,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79A2D96-60D1-324C-A958-7F3D66444E51}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I55" activeCellId="1" sqref="I48 I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>364.5</v>
+      </c>
+      <c r="H3">
+        <v>661.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>555.69000000000005</v>
+      </c>
+      <c r="H4">
+        <v>606.67999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1000.85</v>
+      </c>
+      <c r="H5">
+        <v>660.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>1106.33</v>
+      </c>
+      <c r="H6">
+        <v>695.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <f>AVERAGE(G3:G6)</f>
+        <v>756.84249999999997</v>
+      </c>
+      <c r="H13" s="2">
+        <f>AVERAGE(H3:H6)</f>
+        <v>656.01</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>909.98</v>
+      </c>
+      <c r="H15">
+        <v>618.26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>427.96</v>
+      </c>
+      <c r="H22">
+        <v>592.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>32</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>438.85</v>
+      </c>
+      <c r="H29">
+        <v>638.88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>32</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>1902.8</v>
+      </c>
+      <c r="H36">
+        <v>649.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>32</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>714.43</v>
+      </c>
+      <c r="H43">
+        <v>625.80999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>32</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>1473.1</v>
+      </c>
+      <c r="H50">
+        <v>637.23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2">
+        <f>AVERAGE(G3:G50)</f>
+        <v>877.39386363636368</v>
+      </c>
+      <c r="H61" s="2">
+        <f>AVERAGE(H3:H50)</f>
+        <v>640.22545454545445</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Result/Benchmark.xlsx
+++ b/Result/Benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emnormandie1-my.sharepoint.com/personal/jtang_em-normandie_fr/Documents/2EVRPMM/Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{BCA062F6-474C-7746-BDF9-09AF316CFC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46ADF1DF-F7E4-0849-BE99-A89AA7986297}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{BCA062F6-474C-7746-BDF9-09AF316CFC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{567D7EF4-6B3E-6543-807D-0962E689AEB4}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="1720" windowWidth="27880" windowHeight="17440" xr2:uid="{1C0CB0A3-9B2E-1349-8EE0-79BEAD6D3ED0}"/>
+    <workbookView xWindow="1300" yWindow="2280" windowWidth="22400" windowHeight="17440" xr2:uid="{1C0CB0A3-9B2E-1349-8EE0-79BEAD6D3ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,11 +162,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,14 +506,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79A2D96-60D1-324C-A958-7F3D66444E51}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I55" activeCellId="1" sqref="I48 I55"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -540,7 +543,7 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
